--- a/debug/vio.xlsx
+++ b/debug/vio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -514,29 +514,29 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221021073</v>
+        <v>221014028</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A125441108001</t>
+          <t>A115011108013</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>25GC23BTH0-0001</t>
+          <t>15AC23BTH0-00010002</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11/28 庫存</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
@@ -544,19 +544,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="M2" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -569,11 +569,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>221021083</v>
+        <v>221021015</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A116071108012</t>
+          <t>A108020108012</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -583,15 +583,15 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16FC23BWHJ1-0201</t>
+          <t>80B23BWH0-00010002</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11/28 恒青</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J3" s="2" t="n">
@@ -599,19 +599,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>大24-19-17-1</t>
+          <t>小8-4-2-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>221021092</v>
+        <v>221021012</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A108010104001</t>
+          <t>A112013108009</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -638,15 +638,15 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>80A11BTH0-0001</t>
+          <t>12AM23BTHF-00010002</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/28 JAMES</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J4" s="2" t="n">
@@ -654,19 +654,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>小13-0-0-1</t>
+          <t>小4-1-3-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>221014028</v>
+        <v>221021016</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A115011108013</t>
+          <t>A108010208014</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -693,11 +693,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15AC23BTH0-00010002</t>
+          <t>80A23SWH0-00010002</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -709,19 +709,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>中7-11-11-1</t>
+          <t>小16-0-0-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -734,11 +734,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221007093</v>
+        <v>221014058</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A115050104002</t>
+          <t>A108010108007</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -748,15 +748,15 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15P11BWH0-0201</t>
+          <t>80A23BTH0-00010002</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>400</v>
+        <v>72</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11/28 東頡(麥)11/10入</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J6" s="2" t="n">
@@ -764,19 +764,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>中2-11-8-1</t>
+          <t>小13-0-0-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="M6" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -789,11 +789,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>221021017</v>
+        <v>221021090</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A109220108011</t>
+          <t>A112710103001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -803,15 +803,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>92B23BTH0-00010002</t>
+          <t>13A10BWH0-6701</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>960</v>
+        <v>200</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 EPPENDORF</t>
         </is>
       </c>
       <c r="J7" s="2" t="n">
@@ -819,19 +819,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>小7-5-2-1</t>
+          <t>小8-3-1-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>148</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -844,11 +844,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221014045</v>
+        <v>221021108</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A112010208028</t>
+          <t>A108020104002</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -858,15 +858,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12A23STL0-001401</t>
+          <t>80B11BWH0-0001</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11/28 宏電</t>
+          <t>11/28 科祿柏</t>
         </is>
       </c>
       <c r="J8" s="2" t="n">
@@ -874,19 +874,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>小10-1-1-1</t>
+          <t>小8-4-2-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -899,25 +899,25 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221021022</v>
+        <v>221021020</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A115010108001</t>
+          <t>A115052108009</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15A23BTH0-0001</t>
+          <t>15PE23BWHN1-0300</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -929,19 +929,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>中2-11-9-1</t>
         </is>
       </c>
       <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
         <v>5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -950,235 +950,235 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>221014004</v>
+        <v>221014026</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A115061108009</t>
+          <t>A112710108002</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15KC23BTHF-00010009</t>
+          <t>13A23BTH0-00010002</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J10" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>中13-11-13-1</t>
+          <t>小7-3-1-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>221007007</v>
+        <v>221021022</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A112010108048</t>
+          <t>A115010108001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12A23BTM0-00010009</t>
+          <t>15A23BTH0-0001</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2000</v>
+        <v>240</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>286</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>221014060</v>
+        <v>221007098</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A415011104001</t>
+          <t>A115061108004</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>風扇組</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15AC11BWH0-57010009</t>
+          <t>15KC23BTH0-0001</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 庫存(麥)11/10入</t>
         </is>
       </c>
       <c r="J12" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>中8-11-11-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/21</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>221007012</v>
+        <v>221021007</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A115051104018</t>
+          <t>A108020108001</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15PC11BTH0-00010009</t>
+          <t>80B23BTH0-0001</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>700</v>
+        <v>216</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248(彩)</t>
+          <t>11/28 庫存</t>
         </is>
       </c>
       <c r="J13" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小7-4-2-1</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>140</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2022/11/21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2022/11/22</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2022/11/22</t>
-        </is>
-      </c>
       <c r="D14" t="n">
-        <v>221021010</v>
+        <v>221014022</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A112020208014</t>
+          <t>A108010108015</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1188,35 +1188,35 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12B23STH0-0014</t>
+          <t>80A23BWH0-00010002</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>180</v>
+        <v>864</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11/29 鈞楷</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J14" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>小10-1-2-1</t>
+          <t>小14-0-0-1</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>29</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1225,15 +1225,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>221021032</v>
+        <v>221007093</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A115051108003</t>
+          <t>A115050104002</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1243,341 +1243,341 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15PC23BWH0-0201</t>
+          <t>15P11BWH0-0201</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11/29 BETA</t>
+          <t>11/28 東頡(麥)11/10入</t>
         </is>
       </c>
       <c r="J15" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>中4-11-10-1</t>
+          <t>中2-11-8-1</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="M15" t="n">
-        <v>600</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>221014009</v>
+        <v>221021021</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AC15001808003</t>
+          <t>A115061108004</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>軸流扇(T)</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>T15PBPB23M1D4AN-09300</t>
+          <t>15KC23BTH0-0001</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>中0-11-8-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>221007010</v>
+        <v>221014027</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A115011108040</t>
+          <t>A115050108013</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15AC23BTH0-00010009</t>
+          <t>15P23BWHT1-02010002</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11/29 ORION(彩) 2248</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J17" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>中7-11-11-1</t>
+          <t>中2-11-8-1</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>4.6</v>
+        <v>5.7</v>
       </c>
       <c r="M17" t="n">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>221021080</v>
+        <v>221021030</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A1205A1104006</t>
+          <t>A125441108001</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20TC11BWH0-02637037</t>
+          <t>25GC23BTH0-0001</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11/29 台積電</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J18" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>大13-21-20-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>221021033</v>
+        <v>221021017</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A115051108001</t>
+          <t>A109220108011</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15PC23BTH0-0001</t>
+          <t>92B23BTH0-00010002</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>960</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11/29 BETA</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J19" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小7-5-2-1</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M19" t="n">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>221007011</v>
+        <v>221021044</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A112010104056</t>
+          <t>A108010104016</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>12A11BTH01-00010009</t>
+          <t>80A11BTH0-00010002</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248(彩)</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J20" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>小13-0-0-1</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221007004</v>
+        <v>221014009</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A112010108040</t>
+          <t>AC15001808003</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇(T)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>12A23BTH0-00010009</t>
+          <t>T15PBPB23M1D4AN-09300</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2500</v>
+        <v>300</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1589,36 +1589,36 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中0-11-8-1</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>358</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>221007013</v>
+        <v>221007010</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A109220108033</t>
+          <t>A115011108040</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1628,15 +1628,15 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>92B23BTL0-00013509</t>
+          <t>15AC23BTH0-00010009</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>384</v>
+        <v>500</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248(彩)</t>
+          <t>11/29 ORION(彩) 2248</t>
         </is>
       </c>
       <c r="J22" s="2" t="n">
@@ -1644,54 +1644,54 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>小7-5-2-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6.5</v>
+        <v>4.6</v>
       </c>
       <c r="M22" t="n">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>220812025</v>
+        <v>221021077</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A112010108040</t>
+          <t>A112010104120</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12A23BTH0-00010009</t>
+          <t>12A11BTH0-00017037</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>5000</v>
+        <v>27</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/29 台積電扇葉</t>
         </is>
       </c>
       <c r="J23" s="2" t="n">
@@ -1706,84 +1706,84 @@
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>715</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>221021052</v>
+        <v>221021033</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A115050108031</t>
+          <t>A115051108001</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15P23BTH0-006461</t>
+          <t>15PC23BTH0-0001</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J24" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>221021053</v>
+        <v>221021032</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A112013108050</t>
+          <t>A115051108003</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1793,162 +1793,162 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12AM23BTHF-0064</t>
+          <t>15PC23BWH0-0201</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11/30 WH定子11/21入</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J25" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>小4-1-3-1</t>
+          <t>中4-11-10-1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="M25" t="n">
-        <v>64</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>221021055</v>
+        <v>221014060</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A125441108035</t>
+          <t>A415011104001</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>風扇組</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>25GC23BTH0-000161</t>
+          <t>15AC11BWH0-57010009</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J26" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中8-11-11-1</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="M26" t="n">
-        <v>134</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>221021045</v>
+        <v>221007012</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A112010108156</t>
+          <t>A115051104018</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇03</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12A23BTH0-0068</t>
+          <t>15PC11BTH0-00010009</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248(彩)</t>
         </is>
       </c>
       <c r="J27" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>429</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>221021051</v>
+        <v>221021080</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A116071108022</t>
+          <t>A1205A1104006</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1958,162 +1958,162 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>16FC23BTHD-000161</t>
+          <t>20TC11BWH0-02637037</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11/30 WH量試電器盒</t>
+          <t>11/29 台積電</t>
         </is>
       </c>
       <c r="J28" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>大1-19-17-1</t>
+          <t>大13-21-20-1</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>221021050</v>
+        <v>220812025</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A115051104048</t>
+          <t>A112010108040</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15PC11BTH0-006461</t>
+          <t>12A23BTH0-00010009</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>20</v>
+        <v>715</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>221021049</v>
+        <v>221014004</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A115050108033</t>
+          <t>A115061108009</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15P23BTL0-006461</t>
+          <t>15KC23BTHF-00010009</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J30" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L30" t="n">
         <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>221021047</v>
+        <v>221021075</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A112020108057</t>
+          <t>A115051108065</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2123,15 +2123,15 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12B23BTL0-0064</t>
+          <t>15PC23BTHP1-006261</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/30 WH扇葉11/24入</t>
         </is>
       </c>
       <c r="J31" s="2" t="n">
@@ -2139,36 +2139,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>小7-1-1-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M31" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022/12/01</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022/12/02</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>221021075</v>
+        <v>221021045</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A115051108065</t>
+          <t>A112010108156</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2178,15 +2178,15 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>15PC23BTHP1-006261</t>
+          <t>12A23BTH0-0068</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>11/30 WH扇葉11/24入</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J32" s="2" t="n">
@@ -2194,36 +2194,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M32" t="n">
-        <v>100</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022/12/02</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2022/12/02</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>221021097</v>
+        <v>221021049</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A115051108034</t>
+          <t>A115050108033</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2233,15 +2233,15 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15PC23BWHJ-0201</t>
+          <t>15P23BTL0-006461</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11/30 君峰(麥)11/11入</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J33" s="2" t="n">
@@ -2249,36 +2249,36 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>中4-11-10-1</t>
+          <t>中1-11-8-1</t>
         </is>
       </c>
       <c r="L33" t="n">
         <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022/12/02</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2022/12/02</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>220909012</v>
+        <v>221021053</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A12544E108003</t>
+          <t>A112013108050</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2288,85 +2288,470 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>25GCB23BWH0-02010001</t>
+          <t>12AM23BTHF-0064</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>12/1 MT 2248</t>
+          <t>11/30 WH定子11/21入</t>
         </is>
       </c>
       <c r="J34" s="2" t="n">
-        <v>44896</v>
+        <v>44895</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>大28-23-23-1</t>
+          <t>小4-1-3-1</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>6.3</v>
       </c>
       <c r="M34" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>221021051</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A116071108022</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>16FC23BTHD-000161</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>320</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>11/30 WH量試電器盒</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>大1-19-17-1</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M35" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>221021087</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>A112710108025</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>13A23BWHN-C364</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>120</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>小8-3-1-1</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>7</v>
+      </c>
+      <c r="M36" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>221021055</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A125441108035</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>25GC23BTH0-000161</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>400</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>大15-23-21-1</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>221021097</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A115051108034</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>15PC23BWHJ-0201</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>500</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>11/30 君峰(麥)11/11入</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>中4-11-10-1</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>221021052</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A115050108031</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>15P23BTH0-006461</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>中1-11-8-1</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>221021050</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A115051104048</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>15PC11BTH0-006461</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>100</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>中3-11-10-1</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>221028015</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A12544E104002</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>25GCB11BTH0-00010001</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>200</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>12/1 MT 2249</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>大18-23-23-1</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>2</v>
+      </c>
+      <c r="M41" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
         <is>
           <t>2022/12/02</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2022/12/02</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>221028015</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>A12544E104002</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>軸流扇</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>25GCB11BTH0-00010001</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>200</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>12/1 MT 2249</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="n">
+      <c r="D42" t="n">
+        <v>220909012</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A12544E108003</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>25GCB23BWH0-02010001</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>100</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>12/1 MT 2248</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>大18-23-23-1</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>大28-23-23-1</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
         <v>2</v>
       </c>
-      <c r="M35" t="n">
-        <v>100</v>
+      <c r="M42" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/debug/vio.xlsx
+++ b/debug/vio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -514,11 +514,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221014028</v>
+        <v>221021047</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A115011108013</t>
+          <t>A112020108057</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,35 +528,35 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15AC23BTH0-00010002</t>
+          <t>12B23BTL0-0064</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>180</v>
+        <v>600</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>中7-11-11-1</t>
+          <t>小7-1-1-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>4.6</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -569,11 +569,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>221021015</v>
+        <v>221021108</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A108020108012</t>
+          <t>A108020104002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80B23BWH0-00010002</t>
+          <t>80B11BWH0-0001</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -591,7 +591,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 科祿柏</t>
         </is>
       </c>
       <c r="J3" s="2" t="n">
@@ -611,7 +611,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>221021012</v>
+        <v>221021078</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A112013108009</t>
+          <t>A115051104053</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -638,35 +638,35 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12AM23BTHF-00010002</t>
+          <t>15PC11BTH0-00017037</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/24 台積電</t>
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>小4-1-3-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>221021016</v>
+        <v>221014016</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A108010208014</t>
+          <t>A112010104082</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -693,35 +693,35 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>80A23SWH0-00010002</t>
+          <t>12A11BWH01-00160001</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>144</v>
+        <v>800</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/24 MT 2247定子11/16入</t>
         </is>
       </c>
       <c r="J5" s="2" t="n">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>小16-0-0-1</t>
+          <t>小2-1-1-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>23</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -734,49 +734,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221014058</v>
+        <v>221007013</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A108010108007</t>
+          <t>A109220108033</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80A23BTH0-00010002</t>
+          <t>92B23BTL0-00013509</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>72</v>
+        <v>384</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/29 ORION 2248(彩)</t>
         </is>
       </c>
       <c r="J6" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>小13-0-0-1</t>
+          <t>小7-5-2-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -789,29 +789,29 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>221021090</v>
+        <v>221021008</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A112710103001</t>
+          <t>A109220108001</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13A10BWH0-6701</t>
+          <t>92B23BTH0-0001</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11/28 EPPENDORF</t>
+          <t>11/28 庫存</t>
         </is>
       </c>
       <c r="J7" s="2" t="n">
@@ -819,19 +819,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>小8-3-1-1</t>
+          <t>小7-5-2-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M7" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -844,11 +844,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221021108</v>
+        <v>221014026</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A108020104002</t>
+          <t>A112710108002</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -858,15 +858,15 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>80B11BWH0-0001</t>
+          <t>13A23BTH0-00010002</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>144</v>
+        <v>400</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11/28 科祿柏</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J8" s="2" t="n">
@@ -874,19 +874,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>小8-4-2-1</t>
+          <t>小7-3-1-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="M8" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -899,11 +899,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221021020</v>
+        <v>221021092</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A115052108009</t>
+          <t>A108010104001</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -913,15 +913,15 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15PE23BWHN1-0300</t>
+          <t>80A11BTH0-0001</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 JAMES</t>
         </is>
       </c>
       <c r="J9" s="2" t="n">
@@ -929,19 +929,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>中2-11-9-1</t>
+          <t>小13-0-0-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -954,11 +954,11 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>221014026</v>
+        <v>221021053</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A112710108002</t>
+          <t>A112013108050</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13A23BTH0-00010002</t>
+          <t>12AM23BTHF-0064</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -976,27 +976,27 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/30 WH定子11/21入</t>
         </is>
       </c>
       <c r="J10" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>小7-3-1-1</t>
+          <t>小4-1-3-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1009,29 +1009,29 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>221021022</v>
+        <v>221021015</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A115010108001</t>
+          <t>A108020108012</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15A23BTH0-0001</t>
+          <t>80B23BWH0-00010002</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>240</v>
+        <v>144</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J11" s="2" t="n">
@@ -1039,19 +1039,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>小8-4-2-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1064,11 +1064,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>221007098</v>
+        <v>221021007</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A115061108004</t>
+          <t>A108020108001</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1078,15 +1078,15 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15KC23BTH0-0001</t>
+          <t>80B23BTH0-0001</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>400</v>
+        <v>216</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11/28 庫存(麥)11/10入</t>
+          <t>11/28 庫存</t>
         </is>
       </c>
       <c r="J12" s="2" t="n">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>中13-11-13-1</t>
+          <t>小7-4-2-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1119,49 +1119,49 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>221021007</v>
+        <v>221014057</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A108020108001</t>
+          <t>A112013108007</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>80B23BTH0-0001</t>
+          <t>12AM23BWHF-0001</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11/28 庫存</t>
+          <t>11/25 LAMIS</t>
         </is>
       </c>
       <c r="J13" s="2" t="n">
-        <v>44893</v>
+        <v>44890</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>小7-4-2-1</t>
+          <t>小5-1-3-1</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1170,70 +1170,70 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>221014022</v>
+        <v>220812025</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A108010108015</t>
+          <t>A112010108040</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>80A23BWH0-00010002</t>
+          <t>12A23BTH0-00010009</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>864</v>
+        <v>5000</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J14" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>小14-0-0-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>7</v>
       </c>
       <c r="M14" t="n">
-        <v>124</v>
+        <v>715</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>221007093</v>
+        <v>221021083</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A115050104002</t>
+          <t>A116071108012</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1243,15 +1243,15 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15P11BWH0-0201</t>
+          <t>16FC23BWHJ1-0201</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11/28 東頡(麥)11/10入</t>
+          <t>11/28 恒青</t>
         </is>
       </c>
       <c r="J15" s="2" t="n">
@@ -1259,91 +1259,91 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>中2-11-8-1</t>
+          <t>大24-19-17-1</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>221021021</v>
+        <v>221021009</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A115061108004</t>
+          <t>A112020204010</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15KC23BTH0-0001</t>
+          <t>12B11STH0-0014</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/29 鈞楷</t>
         </is>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>中13-11-13-1</t>
+          <t>小10-1-2-1</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="M16" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>221014027</v>
+        <v>220909012</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A115050108013</t>
+          <t>A12544E108003</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1353,125 +1353,125 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15P23BWHT1-02010002</t>
+          <t>25GCB23BWH0-02010001</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>12/1 MT 2248</t>
         </is>
       </c>
       <c r="J17" s="2" t="n">
-        <v>44893</v>
+        <v>44896</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>中2-11-8-1</t>
+          <t>大28-23-23-1</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>221021030</v>
+        <v>221007010</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A125441108001</t>
+          <t>A115011108040</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇03</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>25GC23BTH0-0001</t>
+          <t>15AC23BTH0-00010009</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/29 ORION(彩) 2248</t>
         </is>
       </c>
       <c r="J18" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>221021017</v>
+        <v>221007098</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A109220108011</t>
+          <t>A115061108004</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>92B23BTH0-00010002</t>
+          <t>15KC23BTH0-0001</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>960</v>
+        <v>400</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 庫存(麥)11/10入</t>
         </is>
       </c>
       <c r="J19" s="2" t="n">
@@ -1479,36 +1479,36 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>小7-5-2-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>148</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>221021044</v>
+        <v>221021052</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A108010104016</t>
+          <t>A115050108031</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1518,162 +1518,162 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>80A11BTH0-00010002</t>
+          <t>15P23BTH0-006461</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>72</v>
+        <v>2000</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J20" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>小13-0-0-1</t>
+          <t>中1-11-8-1</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>11</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221014009</v>
+        <v>221021030</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AC15001808003</t>
+          <t>A125441108001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>軸流扇(T)</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>T15PBPB23M1D4AN-09300</t>
+          <t>25GC23BTH0-0001</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J21" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>中0-11-8-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>221007010</v>
+        <v>221021016</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A115011108040</t>
+          <t>A108010208014</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15AC23BTH0-00010009</t>
+          <t>80A23SWH0-00010002</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>500</v>
+        <v>144</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>11/29 ORION(彩) 2248</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J22" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>中7-11-11-1</t>
+          <t>小16-0-0-1</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>4.6</v>
+        <v>6.3</v>
       </c>
       <c r="M22" t="n">
-        <v>109</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>221021077</v>
+        <v>221021051</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A112010104120</t>
+          <t>A116071108022</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1683,125 +1683,125 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>12A11BTH0-00017037</t>
+          <t>16FC23BTHD-000161</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>27</v>
+        <v>320</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11/29 台積電扇葉</t>
+          <t>11/30 WH量試電器盒</t>
         </is>
       </c>
       <c r="J23" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>大1-19-17-1</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>221021033</v>
+        <v>221021068</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A115051108001</t>
+          <t>A117251104004</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15PC23BTH0-0001</t>
+          <t>17PC11BTH0-00010002</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11/29 BETA</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J24" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>中1-12-8-1</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>221021032</v>
+        <v>221014060</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A115051108003</t>
+          <t>A415011104001</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>風扇組</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15PC23BWH0-0201</t>
+          <t>15AC11BWH0-57010009</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3000</v>
+        <v>180</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11/29 BETA</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J25" s="2" t="n">
@@ -1809,146 +1809,146 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>中4-11-10-1</t>
+          <t>中8-11-11-1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="M25" t="n">
-        <v>600</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>221014060</v>
+        <v>221021022</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A415011104001</t>
+          <t>A115010108001</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>風扇組</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15AC11BWH0-57010009</t>
+          <t>15A23BTH0-0001</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J26" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>中8-11-11-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>221007012</v>
+        <v>221021017</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A115051104018</t>
+          <t>A109220108011</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15PC11BTH0-00010009</t>
+          <t>92B23BTH0-00010002</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>700</v>
+        <v>960</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248(彩)</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J27" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小7-5-2-1</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>221021080</v>
+        <v>221021010</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A1205A1104006</t>
+          <t>A112020208014</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1958,15 +1958,15 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20TC11BWH0-02637037</t>
+          <t>12B23STH0-0014</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11/29 台積電</t>
+          <t>11/29 鈞楷</t>
         </is>
       </c>
       <c r="J28" s="2" t="n">
@@ -1974,101 +1974,101 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>大13-21-20-1</t>
+          <t>小10-1-2-1</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="M28" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>220812025</v>
+        <v>221021090</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A112010108040</t>
+          <t>A112710103001</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12A23BTH0-00010009</t>
+          <t>13A10BWH0-6701</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 EPPENDORF</t>
         </is>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>小8-3-1-1</t>
         </is>
       </c>
       <c r="L29" t="n">
         <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>715</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>2022/11/25</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>2022/11/28</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2022/11/28</t>
-        </is>
-      </c>
       <c r="D30" t="n">
-        <v>221014004</v>
+        <v>221028074</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A115061108009</t>
+          <t>A112010108001</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>15KC23BTHF-00010009</t>
+          <t>12A23BTH0-0001</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2076,27 +2076,27 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/24 傑羅斯邦</t>
         </is>
       </c>
       <c r="J30" s="2" t="n">
-        <v>44894</v>
+        <v>44889</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>中13-11-13-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M30" t="n">
-        <v>120</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2109,11 +2109,11 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>221021075</v>
+        <v>221021023</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A115051108065</t>
+          <t>A115010104001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2123,35 +2123,35 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15PC23BTHP1-006261</t>
+          <t>15A11BTH0-0001</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11/30 WH扇葉11/24入</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>221021045</v>
+        <v>221021055</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A112010108156</t>
+          <t>A125441108035</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2178,11 +2178,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12A23BTH0-0068</t>
+          <t>25GC23BTH0-000161</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3000</v>
+        <v>400</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -2194,36 +2194,36 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>429</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>221021049</v>
+        <v>221014008</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>A115050108033</t>
+          <t>A108020108008</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2233,107 +2233,107 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15P23BTL0-006461</t>
+          <t>80B23BWH0-4101</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28  君峰</t>
         </is>
       </c>
       <c r="J33" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>小8-4-2-1</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>221021053</v>
+        <v>221021073</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>A112013108050</t>
+          <t>A125441108001</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>12AM23BTHF-0064</t>
+          <t>25GC23BTH0-0001</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>400</v>
+        <v>50</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>11/30 WH定子11/21入</t>
+          <t>11/28 庫存</t>
         </is>
       </c>
       <c r="J34" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>小4-1-3-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>221021051</v>
+        <v>221021075</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>A116071108022</t>
+          <t>A115051108065</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2343,15 +2343,15 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>16FC23BTHD-000161</t>
+          <t>15PC23BTHP1-006261</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>11/30 WH量試電器盒</t>
+          <t>11/30 WH扇葉11/24入</t>
         </is>
       </c>
       <c r="J35" s="2" t="n">
@@ -2359,91 +2359,91 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>大1-19-17-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>221021087</v>
+        <v>221007004</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>A112710108025</t>
+          <t>A112010108040</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>13A23BWHN-C364</t>
+          <t>12A23BTH0-00010009</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>120</v>
+        <v>2500</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J36" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>小8-3-1-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>7</v>
       </c>
       <c r="M36" t="n">
-        <v>18</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>2022/11/30</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2022/11/30</t>
-        </is>
-      </c>
       <c r="D37" t="n">
-        <v>221021055</v>
+        <v>221021032</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>A125441108035</t>
+          <t>A115051108003</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2453,35 +2453,35 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>25GC23BTH0-000161</t>
+          <t>15PC23BWH0-0201</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J37" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中4-11-10-1</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>134</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2494,49 +2494,49 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>221021097</v>
+        <v>221014009</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>A115051108034</t>
+          <t>AC15001808003</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇(T)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15PC23BWHJ-0201</t>
+          <t>T15PBPB23M1D4AN-09300</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>11/30 君峰(麥)11/11入</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J38" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>中4-11-10-1</t>
+          <t>中0-11-8-1</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2549,209 +2549,44 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>221021052</v>
+        <v>221014004</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>A115050108031</t>
+          <t>A115061108009</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15P23BTH0-006461</t>
+          <t>15KC23BTHF-00010009</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2000</v>
+        <v>600</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J39" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L39" t="n">
         <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2022/12/01</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>2022/12/01</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>221021050</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>A115051104048</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>軸流扇</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>15PC11BTH0-006461</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>100</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>11/30 WH</t>
-        </is>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>44895</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>中3-11-10-1</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>5</v>
-      </c>
-      <c r="M40" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2022/12/01</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>2022/12/01</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>221028015</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>A12544E104002</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>軸流扇</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>25GCB11BTH0-00010001</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>200</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>12/1 MT 2249</t>
-        </is>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>大18-23-23-1</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2022/12/01</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2022/12/02</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>220909012</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>A12544E108003</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>軸流扇</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>25GCB23BWH0-02010001</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>100</v>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>12/1 MT 2248</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>大28-23-23-1</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>2</v>
-      </c>
-      <c r="M42" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/debug/vio.xlsx
+++ b/debug/vio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -514,11 +514,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221021047</v>
+        <v>221014026</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A112020108057</t>
+          <t>A112710108002</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,35 +528,35 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>12B23BTL0-0064</t>
+          <t>13A23BTH0-00010002</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>小7-1-1-1</t>
+          <t>小7-3-1-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="M2" t="n">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>221021108</v>
+        <v>221007004</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A108020104002</t>
+          <t>A112010108040</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>80B11BWH0-0001</t>
+          <t>12A23BTH0-00010009</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>144</v>
+        <v>2500</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11/28 科祿柏</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>小8-4-2-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>21</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>221021078</v>
+        <v>221021009</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A115051104053</t>
+          <t>A112020204010</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -638,35 +638,35 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15PC11BTH0-00017037</t>
+          <t>12B11STH0-0014</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/24 台積電</t>
+          <t>11/29 鈞楷</t>
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>44889</v>
+        <v>44894</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小10-1-2-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>221014016</v>
+        <v>221021078</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A112010104082</t>
+          <t>A115051104053</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -693,15 +693,15 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>12A11BWH01-00160001</t>
+          <t>15PC11BTH0-00017037</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11/24 MT 2247定子11/16入</t>
+          <t>11/24 台積電</t>
         </is>
       </c>
       <c r="J5" s="2" t="n">
@@ -709,19 +709,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>小2-1-1-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>115</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -730,88 +730,88 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221007013</v>
+        <v>221014022</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A109220108033</t>
+          <t>A108010108015</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>92B23BTL0-00013509</t>
+          <t>80A23BWH0-00010002</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>384</v>
+        <v>864</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248(彩)</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J6" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>小7-5-2-1</t>
+          <t>小14-0-0-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>60</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>221021008</v>
+        <v>221021020</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A109220108001</t>
+          <t>A115052108009</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>92B23BTH0-0001</t>
+          <t>15PE23BWHN1-0300</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11/28 庫存</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J7" s="2" t="n">
@@ -819,36 +819,36 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>小7-5-2-1</t>
+          <t>中2-11-9-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221014026</v>
+        <v>221014027</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A112710108002</t>
+          <t>A115050108013</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -858,11 +858,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13A23BTH0-00010002</t>
+          <t>15P23BWHT1-02010002</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -874,91 +874,91 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>小7-3-1-1</t>
+          <t>中2-11-8-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>6.8</v>
+        <v>5.7</v>
       </c>
       <c r="M8" t="n">
-        <v>59</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221021092</v>
+        <v>221007010</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A108010104001</t>
+          <t>A115011108040</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇03</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>80A11BTH0-0001</t>
+          <t>15AC23BTH0-00010009</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11/28 JAMES</t>
+          <t>11/29 ORION(彩) 2248</t>
         </is>
       </c>
       <c r="J9" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>小13-0-0-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>6.8</v>
+        <v>4.6</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>221021053</v>
+        <v>221021012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A112013108050</t>
+          <t>A112013108009</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -968,19 +968,19 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12AM23BTHF-0064</t>
+          <t>12AM23BTHF-00010002</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11/30 WH定子11/21入</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J10" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -991,181 +991,181 @@
         <v>6.3</v>
       </c>
       <c r="M10" t="n">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>221021015</v>
+        <v>221014060</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A108020108012</t>
+          <t>A415011104001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>風扇組</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>80B23BWH0-00010002</t>
+          <t>15AC11BWH0-57010009</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>小8-4-2-1</t>
+          <t>中8-11-11-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>7</v>
+        <v>4.3</v>
       </c>
       <c r="M11" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>221021007</v>
+        <v>221021045</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A108020108001</t>
+          <t>A112010108156</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>80B23BTH0-0001</t>
+          <t>12A23BTH0-0068</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>216</v>
+        <v>3000</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11/28 庫存</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J12" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>小7-4-2-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M12" t="n">
-        <v>34</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>221014057</v>
+        <v>221021033</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A112013108007</t>
+          <t>A115051108001</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12AM23BWHF-0001</t>
+          <t>15PC23BTH0-0001</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11/25 LAMIS</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J13" s="2" t="n">
-        <v>44890</v>
+        <v>44894</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>小5-1-3-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>220812025</v>
+        <v>221021075</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A112010108040</t>
+          <t>A115051108065</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12A23BTH0-00010009</t>
+          <t>15PC23BTHP1-006261</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/30 WH扇葉11/24入</t>
         </is>
       </c>
       <c r="J14" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>715</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1229,29 +1229,29 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>221021083</v>
+        <v>221021073</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A116071108012</t>
+          <t>A125441108001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>16FC23BWHJ1-0201</t>
+          <t>25GC23BTH0-0001</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11/28 恒青</t>
+          <t>11/28 庫存</t>
         </is>
       </c>
       <c r="J15" s="2" t="n">
@@ -1259,19 +1259,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>大24-19-17-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L15" t="n">
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1284,11 +1284,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>221021009</v>
+        <v>221021055</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A112020204010</t>
+          <t>A125441108035</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1298,35 +1298,35 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12B11STH0-0014</t>
+          <t>25GC23BTH0-000161</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11/29 鈞楷</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>小10-1-2-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>96</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1335,180 +1335,180 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>220909012</v>
+        <v>221021022</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A12544E108003</t>
+          <t>A115010108001</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>25GCB23BWH0-02010001</t>
+          <t>15A23BTH0-0001</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>12/1 MT 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J17" s="2" t="n">
-        <v>44896</v>
+        <v>44893</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>大28-23-23-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>221007010</v>
+        <v>221021023</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A115011108040</t>
+          <t>A115010104001</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15AC23BTH0-00010009</t>
+          <t>15A11BTH0-0001</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>500</v>
+        <v>40</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11/29 ORION(彩) 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J18" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>中7-11-11-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>109</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>221007098</v>
+        <v>221021032</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A115061108004</t>
+          <t>A115051108003</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15KC23BTH0-0001</t>
+          <t>15PC23BWH0-0201</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11/28 庫存(麥)11/10入</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J19" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>中13-11-13-1</t>
+          <t>中4-11-10-1</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>221021052</v>
+        <v>221021068</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A115050108031</t>
+          <t>A117251104004</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1518,70 +1518,70 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15P23BTH0-006461</t>
+          <t>17PC11BTH0-00010002</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J20" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>中1-12-8-1</t>
         </is>
       </c>
       <c r="L20" t="n">
         <v>5</v>
       </c>
       <c r="M20" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221021030</v>
+        <v>221014029</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A125441108001</t>
+          <t>A117251104004</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>25GC23BTH0-0001</t>
+          <t>17PC11BTH0-00010002</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J21" s="2" t="n">
@@ -1589,36 +1589,36 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中1-12-8-1</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>221021016</v>
+        <v>221014058</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A108010208014</t>
+          <t>A108010108007</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>80A23SWH0-00010002</t>
+          <t>80A23BTH0-00010002</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1644,14 +1644,14 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>小16-0-0-1</t>
+          <t>小13-0-0-1</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="M22" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1660,12 +1660,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -1711,24 +1711,24 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>221021068</v>
+        <v>221021050</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A117251104004</t>
+          <t>A115051104048</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1738,180 +1738,180 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>17PC11BTH0-00010002</t>
+          <t>15PC11BTH0-006461</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J24" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>中1-12-8-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>221014060</v>
+        <v>220909012</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A415011104001</t>
+          <t>A12544E108003</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>風扇組</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15AC11BWH0-57010009</t>
+          <t>25GCB23BWH0-02010001</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>12/1 MT 2248</t>
         </is>
       </c>
       <c r="J25" s="2" t="n">
-        <v>44894</v>
+        <v>44896</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>中8-11-11-1</t>
+          <t>大28-23-23-1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>221021022</v>
+        <v>221021049</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A115010108001</t>
+          <t>A115050108033</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15A23BTH0-0001</t>
+          <t>15P23BTL0-006461</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J26" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>中1-11-8-1</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>221021017</v>
+        <v>221021021</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A109220108011</t>
+          <t>A115061108004</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>92B23BTH0-00010002</t>
+          <t>15KC23BTH0-0001</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>960</v>
+        <v>100</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J27" s="2" t="n">
@@ -1919,91 +1919,91 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>小7-5-2-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>221021010</v>
+        <v>221021030</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A112020208014</t>
+          <t>A125441108001</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12B23STH0-0014</t>
+          <t>25GC23BTH0-0001</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11/29 鈞楷</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J28" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>小10-1-2-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>6.3</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>221021090</v>
+        <v>221021052</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A112710103001</t>
+          <t>A115050108031</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2013,74 +2013,74 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13A10BWH0-6701</t>
+          <t>15P23BTH0-006461</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11/28 EPPENDORF</t>
+          <t>11/30 WH</t>
         </is>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44893</v>
+        <v>44895</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>小8-3-1-1</t>
+          <t>中1-11-8-1</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>29</v>
+        <v>400</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>221028074</v>
+        <v>221007006</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A112010108001</t>
+          <t>A112010104022</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12A23BTH0-0001</t>
+          <t>12A11BTM0-00010009</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>600</v>
+        <v>2000</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11/24 傑羅斯邦</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J30" s="2" t="n">
-        <v>44889</v>
+        <v>44894</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -2091,29 +2091,29 @@
         <v>7</v>
       </c>
       <c r="M30" t="n">
-        <v>86</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>221021023</v>
+        <v>221014028</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A115010104001</t>
+          <t>A115011108013</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2123,15 +2123,15 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15A11BTH0-0001</t>
+          <t>15AC23BTH0-00010002</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J31" s="2" t="n">
@@ -2139,36 +2139,36 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M31" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/30</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>221021055</v>
+        <v>221028015</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>A125441108035</t>
+          <t>A12544E104002</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2178,415 +2178,30 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>25GC23BTH0-000161</t>
+          <t>25GCB11BTH0-00010001</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>12/1 MT 2249</t>
         </is>
       </c>
       <c r="J32" s="2" t="n">
-        <v>44895</v>
+        <v>44896</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>大18-23-23-1</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2022/11/28</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2022/11/28</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>221014008</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>A108020108008</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>軸流扇</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>80B23BWH0-4101</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>288</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>11/28  君峰</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>小8-4-2-1</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>7</v>
-      </c>
-      <c r="M33" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2022/11/28</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>2022/11/28</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>221021073</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>A125441108001</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>*軸流扇</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>25GC23BTH0-0001</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>50</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>11/28 庫存</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>44893</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>大15-23-21-1</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>3</v>
-      </c>
-      <c r="M34" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2022/11/28</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>2022/11/28</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>221021075</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>A115051108065</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>軸流扇</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>15PC23BTHP1-006261</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>300</v>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>11/30 WH扇葉11/24入</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>44895</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>中3-11-10-1</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>3</v>
-      </c>
-      <c r="M35" t="n">
         <v>100</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2022/11/28</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2022/11/29</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>221007004</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>A112010108040</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>軸流扇00</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>12A23BTH0-00010009</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2500</v>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>11/29 ORION 2248</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>小1-1-1-1</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>7</v>
-      </c>
-      <c r="M36" t="n">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2022/11/29</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>2022/11/30</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>221021032</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>A115051108003</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>軸流扇</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>15PC23BWH0-0201</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>3000</v>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>11/29 BETA</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>中4-11-10-1</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>5</v>
-      </c>
-      <c r="M37" t="n">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2022/11/30</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>2022/11/30</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>221014009</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>AC15001808003</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>軸流扇(T)</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>T15PBPB23M1D4AN-09300</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>300</v>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>11/29 ORION 2248</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>中0-11-8-1</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>5</v>
-      </c>
-      <c r="M38" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2022/11/30</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>2022/12/01</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>221014004</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>A115061108009</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>軸流扇00</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>15KC23BTHF-00010009</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>600</v>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>11/29 ORION 2248</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>44894</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>中13-11-13-1</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>5</v>
-      </c>
-      <c r="M39" t="n">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/debug/vio.xlsx
+++ b/debug/vio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -514,11 +514,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221014026</v>
+        <v>221014029</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A112710108002</t>
+          <t>A117251104004</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,11 +528,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13A23BTH0-00010002</t>
+          <t>17PC11BTH0-00010002</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -544,19 +544,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>小7-3-1-1</t>
+          <t>中1-12-8-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>59</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>221007004</v>
+        <v>221007093</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A112010108040</t>
+          <t>A115050104002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12A23BTH0-00010009</t>
+          <t>15P11BWH0-0201</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2500</v>
+        <v>400</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 東頡(麥)11/10入</t>
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中2-11-8-1</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="M3" t="n">
-        <v>358</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>221021009</v>
+        <v>221014027</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A112020204010</t>
+          <t>A115050108013</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12B11STH0-0014</t>
+          <t>15P23BWHT1-02010002</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -646,27 +646,27 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/29 鈞楷</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>小10-1-2-1</t>
+          <t>中2-11-8-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="M4" t="n">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -675,15 +675,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>221021078</v>
+        <v>221021032</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A115051104053</t>
+          <t>A115051108003</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -693,39 +693,39 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15PC11BTH0-00017037</t>
+          <t>15PC23BWH0-0201</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>160</v>
+        <v>3000</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11/24 台積電</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J5" s="2" t="n">
-        <v>44889</v>
+        <v>44894</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>中4-11-10-1</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>32</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2022/11/21</t>
+          <t>2022/11/22</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -734,29 +734,29 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221014022</v>
+        <v>221007098</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A108010108015</t>
+          <t>A115061108004</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80A23BWH0-00010002</t>
+          <t>15KC23BTH0-0001</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>864</v>
+        <v>400</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 庫存(麥)11/10入</t>
         </is>
       </c>
       <c r="J6" s="2" t="n">
@@ -764,19 +764,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>小14-0-0-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -789,25 +789,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>221021020</v>
+        <v>221021021</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A115052108009</t>
+          <t>A115061108004</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15PE23BWHN1-0300</t>
+          <t>15KC23BTH0-0001</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -819,19 +819,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>中2-11-9-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -840,33 +840,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221014027</v>
+        <v>221007094</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A115050108013</t>
+          <t>A115050108001</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15P23BWHT1-02010002</t>
+          <t>15P23BTH0-0001</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 庫存</t>
         </is>
       </c>
       <c r="J8" s="2" t="n">
@@ -874,109 +874,109 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>中2-11-8-1</t>
+          <t>中1-11-8-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>106</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221007010</v>
+        <v>221021068</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A115011108040</t>
+          <t>A117251104004</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15AC23BTH0-00010009</t>
+          <t>17PC11BTH0-00010002</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11/29 ORION(彩) 2248</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J9" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>中7-11-11-1</t>
+          <t>中1-12-8-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>221021012</v>
+        <v>221021022</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A112013108009</t>
+          <t>A115010108001</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12AM23BTHF-00010002</t>
+          <t>15A23BTH0-0001</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J10" s="2" t="n">
@@ -984,78 +984,78 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>小4-1-3-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>221014060</v>
+        <v>221021023</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A415011104001</t>
+          <t>A115010104001</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>風扇組</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15AC11BWH0-57010009</t>
+          <t>15A11BTH0-0001</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>中8-11-11-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1064,11 +1064,11 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>221021045</v>
+        <v>221021020</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A112010108156</t>
+          <t>A115052108009</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1078,35 +1078,35 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12A23BTH0-0068</t>
+          <t>15PE23BWHN1-0300</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3000</v>
+        <v>30</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J12" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中2-11-9-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>429</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1119,49 +1119,49 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>221021033</v>
+        <v>221014028</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A115051108001</t>
+          <t>A115011108013</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15PC23BTH0-0001</t>
+          <t>15AC23BTH0-00010002</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11/29 BETA</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J13" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>221021075</v>
+        <v>221021073</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A115051108065</t>
+          <t>A125441108001</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15PC23BTHP1-006261</t>
+          <t>25GC23BTH0-0001</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11/30 WH扇葉11/24入</t>
+          <t>11/28 庫存</t>
         </is>
       </c>
       <c r="J14" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>221021073</v>
+        <v>221021030</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1247,11 +1247,11 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>11/28 庫存</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J15" s="2" t="n">
@@ -1266,12 +1266,12 @@
         <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1284,11 +1284,11 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>221021055</v>
+        <v>221021083</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A125441108035</t>
+          <t>A116071108012</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1298,35 +1298,35 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>25GC23BTH0-000161</t>
+          <t>16FC23BWHJ1-0201</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>400</v>
+        <v>32</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 恒青</t>
         </is>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>大24-19-17-1</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>134</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1335,25 +1335,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>221021022</v>
+        <v>221021011</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A115010108001</t>
+          <t>A106030108002</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15A23BTH0-0001</t>
+          <t>60D23BWH0-00010002</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J17" s="2" t="n">
@@ -1369,36 +1369,36 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>小18-48-6-1</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M17" t="n">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>221021023</v>
+        <v>221021012</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A115010104001</t>
+          <t>A112013108009</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1408,15 +1408,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15A11BTH0-0001</t>
+          <t>12AM23BTHF-00010002</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J18" s="2" t="n">
@@ -1424,36 +1424,36 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>小4-1-3-1</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>221021032</v>
+        <v>221021067</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A115051108003</t>
+          <t>A109213108004</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1463,52 +1463,52 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15PC23BWH0-0201</t>
+          <t>92AM23BWHF-00010002</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11/29 BETA</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J19" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>中4-11-10-1</t>
+          <t>小5-5-3-1</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M19" t="n">
-        <v>600</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>221021068</v>
+        <v>221021015</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A117251104004</t>
+          <t>A108020108012</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17PC11BTH0-00010002</t>
+          <t>80B23BWH0-00010002</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1534,36 +1534,36 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>中1-12-8-1</t>
+          <t>小8-4-2-1</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221014029</v>
+        <v>221021092</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A117251104004</t>
+          <t>A108010104001</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1573,15 +1573,15 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17PC11BTH0-00010002</t>
+          <t>80A11BTH0-0001</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 JAMES</t>
         </is>
       </c>
       <c r="J21" s="2" t="n">
@@ -1589,14 +1589,14 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>中1-12-8-1</t>
+          <t>小13-0-0-1</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
@@ -1605,12 +1605,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1656,24 +1656,24 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2022/11/25</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>221021051</v>
+        <v>221021044</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A116071108022</t>
+          <t>A108010104016</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1683,396 +1683,396 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16FC23BTHD-000161</t>
+          <t>80A11BTH0-00010002</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>320</v>
+        <v>72</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11/30 WH量試電器盒</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J23" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>大1-19-17-1</t>
+          <t>小13-0-0-1</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>221021050</v>
+        <v>221007007</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A115051104048</t>
+          <t>A112010108048</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15PC11BTH0-006461</t>
+          <t>12A23BTM0-00010009</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J24" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>220909012</v>
+        <v>221007006</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A12544E108003</t>
+          <t>A112010104022</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>25GCB23BWH0-02010001</t>
+          <t>12A11BTM0-00010009</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12/1 MT 2248</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J25" s="2" t="n">
-        <v>44896</v>
+        <v>44894</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>大28-23-23-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>221021049</v>
+        <v>221014004</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A115050108033</t>
+          <t>A115061108009</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15P23BTL0-006461</t>
+          <t>15KC23BTHF-00010009</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J26" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>221021021</v>
+        <v>221007010</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A115061108004</t>
+          <t>A115011108040</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇03</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15KC23BTH0-0001</t>
+          <t>15AC23BTH0-00010009</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/29 ORION(彩) 2248</t>
         </is>
       </c>
       <c r="J27" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>中13-11-13-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>221021030</v>
+        <v>221007012</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A125441108001</t>
+          <t>A115051104018</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇03</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>25GC23BTH0-0001</t>
+          <t>15PC11BTH0-00010009</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>30</v>
+        <v>700</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/29 ORION 2248(彩)</t>
         </is>
       </c>
       <c r="J28" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>221021052</v>
+        <v>221021033</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A115050108031</t>
+          <t>A115051108001</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15P23BTH0-006461</t>
+          <t>15PC23BTH0-0001</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L29" t="n">
         <v>5</v>
       </c>
       <c r="M29" t="n">
-        <v>400</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>221007006</v>
+        <v>221014009</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A112010104022</t>
+          <t>AC15001808003</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇(T)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12A11BTM0-00010009</t>
+          <t>T15PBPB23M1D4AN-09300</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2000</v>
+        <v>300</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -2084,46 +2084,46 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中0-11-8-1</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>286</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2022/11/29</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/28</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>221014028</v>
+        <v>221014060</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A115011108013</t>
+          <t>A415011104001</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>風扇組</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15AC23BTH0-00010002</t>
+          <t>15AC11BWH0-57010009</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -2131,77 +2131,627 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>中7-11-11-1</t>
+          <t>中8-11-11-1</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2022/11/28</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2022/11/28</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>221021080</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A1205A1104006</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>20TC11BWH0-02637037</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>60</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>11/29 台積電</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>大13-21-20-1</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>3</v>
+      </c>
+      <c r="M32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2022/11/28</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>221021052</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A115050108031</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>15P23BTH0-006461</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>中1-11-8-1</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>221021055</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>A125441108035</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>25GC23BTH0-000161</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>400</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>大15-23-21-1</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>221021048</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A109220108039</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>92B23BTH0-0064</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>小7-5-2-1</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>221021049</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>A115050108033</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>15P23BTL0-006461</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>200</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>中1-11-8-1</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>221021075</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A115051108065</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>15PC23BTHP1-006261</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>300</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>11/30 WH扇葉11/24入</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>中3-11-10-1</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>221021050</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A115051104048</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>15PC11BTH0-006461</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>100</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>中3-11-10-1</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>221021097</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A115051108034</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>15PC23BWHJ-0201</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>500</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>11/30 君峰(麥)11/11入</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>中4-11-10-1</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>221021051</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A116071108022</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>16FC23BTHD-000161</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>320</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>11/30 WH量試電器盒</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>大1-19-17-1</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M40" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>2022/11/30</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>2022/11/30</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D41" t="n">
         <v>221028015</v>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>A12544E104002</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>軸流扇</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>25GCB11BTH0-00010001</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H41" t="n">
         <v>200</v>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>12/1 MT 2249</t>
         </is>
       </c>
-      <c r="J32" s="2" t="n">
+      <c r="J41" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>大18-23-23-1</t>
         </is>
       </c>
-      <c r="L32" t="n">
+      <c r="L41" t="n">
         <v>2</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M41" t="n">
         <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>220909012</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A12544E108003</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>25GCB23BWH0-02010001</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>100</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>12/1 MT 2248</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>大28-23-23-1</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/debug/vio.xlsx
+++ b/debug/vio.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,7 +501,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -514,11 +514,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>221014026</v>
+        <v>221021078</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A112710108002</t>
+          <t>A115051104053</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -528,35 +528,35 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13A23BTH0-00010002</t>
+          <t>15PC11BTH0-00017037</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/24 台積電</t>
         </is>
       </c>
       <c r="J2" s="2" t="n">
-        <v>44893</v>
+        <v>44889</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>小7-3-1-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>59</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -569,49 +569,49 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>221007004</v>
+        <v>221014016</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A112010108040</t>
+          <t>A112010104082</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12A23BTH0-00010009</t>
+          <t>12A11BWH01-00160001</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/24 MT 2247定子11/16入</t>
         </is>
       </c>
       <c r="J3" s="2" t="n">
-        <v>44894</v>
+        <v>44889</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>小2-1-1-1</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>7</v>
       </c>
       <c r="M3" t="n">
-        <v>358</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -624,11 +624,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>221021009</v>
+        <v>221014057</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A112020204010</t>
+          <t>A112013108007</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -638,35 +638,35 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12B11STH0-0014</t>
+          <t>12AM23BWHF-0001</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>11/29 鈞楷</t>
+          <t>11/25 LAMIS</t>
         </is>
       </c>
       <c r="J4" s="2" t="n">
-        <v>44894</v>
+        <v>44890</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>小10-1-2-1</t>
+          <t>小5-1-3-1</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="M4" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -679,29 +679,29 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>221021078</v>
+        <v>221028074</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A115051104053</t>
+          <t>A112010108001</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15PC11BTH0-00017037</t>
+          <t>12A23BTH0-0001</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>160</v>
+        <v>600</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>11/24 台積電</t>
+          <t>11/24 傑羅斯邦</t>
         </is>
       </c>
       <c r="J5" s="2" t="n">
@@ -709,19 +709,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -734,49 +734,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>221014022</v>
+        <v>220812025</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A108010108015</t>
+          <t>A112010108040</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80A23BWH0-00010002</t>
+          <t>12A23BTH0-00010009</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>864</v>
+        <v>5000</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J6" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>小14-0-0-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>124</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -789,11 +789,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>221021020</v>
+        <v>221014029</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A115052108009</t>
+          <t>A117251104004</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -803,15 +803,15 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15PE23BWHN1-0300</t>
+          <t>17PC11BTH0-00010002</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J7" s="2" t="n">
@@ -819,19 +819,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>中2-11-9-1</t>
+          <t>中1-12-8-1</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -844,11 +844,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>221014027</v>
+        <v>221021068</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A115050108013</t>
+          <t>A117251104004</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -858,11 +858,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15P23BWHT1-02010002</t>
+          <t>17PC11BTH0-00010002</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -874,19 +874,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>中2-11-8-1</t>
+          <t>中1-12-8-1</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="M8" t="n">
-        <v>106</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -895,70 +895,70 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221007010</v>
+        <v>221007098</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>A115011108040</t>
+          <t>A115061108004</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>軸流扇03</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15AC23BTH0-00010009</t>
+          <t>15KC23BTH0-0001</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>11/29 ORION(彩) 2248</t>
+          <t>11/28 庫存(麥)11/10入</t>
         </is>
       </c>
       <c r="J9" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>中7-11-11-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>221021012</v>
+        <v>221014027</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A112013108009</t>
+          <t>A115050108013</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -968,11 +968,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>12AM23BTHF-00010002</t>
+          <t>15P23BWHT1-02010002</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -984,91 +984,91 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>小4-1-3-1</t>
+          <t>中2-11-8-1</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="M10" t="n">
-        <v>20</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>221014060</v>
+        <v>221007093</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A415011104001</t>
+          <t>A115050104002</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>風扇組</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15AC11BWH0-57010009</t>
+          <t>15P11BWH0-0201</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>180</v>
+        <v>400</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/28 東頡(麥)11/10入</t>
         </is>
       </c>
       <c r="J11" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>中8-11-11-1</t>
+          <t>中2-11-8-1</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="M11" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2022/11/22</t>
+          <t>2022/11/23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>221021045</v>
+        <v>221021032</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A112010108156</t>
+          <t>A115051108003</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1078,7 +1078,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12A23BTH0-0068</t>
+          <t>15PC23BWH0-0201</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1086,44 +1086,44 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 BETA</t>
         </is>
       </c>
       <c r="J12" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中4-11-10-1</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>429</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>221021033</v>
+        <v>221021022</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>A115051108001</t>
+          <t>A115010108001</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1133,52 +1133,52 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15PC23BTH0-0001</t>
+          <t>15A23BTH0-0001</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>11/29 BETA</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J13" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>221021075</v>
+        <v>221021023</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>A115051108065</t>
+          <t>A115010104001</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1188,52 +1188,52 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15PC23BTHP1-006261</t>
+          <t>15A11BTH0-0001</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>11/30 WH扇葉11/24入</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J14" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>中11-11-1-1</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>221021073</v>
+        <v>221007094</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A125441108001</t>
+          <t>A115050108001</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1243,11 +1243,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>25GC23BTH0-0001</t>
+          <t>15P23BTH0-0001</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1259,105 +1259,105 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中1-11-8-1</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>221021055</v>
+        <v>221021021</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A125441108035</t>
+          <t>A115061108004</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>25GC23BTH0-000161</t>
+          <t>15KC23BTH0-0001</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J16" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>中13-11-13-1</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>134</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2022/11/23</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>221021022</v>
+        <v>221021020</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>A115010108001</t>
+          <t>A115052108009</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15A23BTH0-0001</t>
+          <t>15PE23BWHN1-0300</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1369,36 +1369,36 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>中2-11-9-1</t>
         </is>
       </c>
       <c r="L17" t="n">
+        <v>6</v>
+      </c>
+      <c r="M17" t="n">
         <v>5</v>
-      </c>
-      <c r="M17" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>221021023</v>
+        <v>221014028</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>A115010104001</t>
+          <t>A115011108013</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1408,15 +1408,15 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15A11BTH0-0001</t>
+          <t>15AC23BTH0-00010002</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J18" s="2" t="n">
@@ -1424,23 +1424,23 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>中11-11-1-1</t>
+          <t>中7-11-11-1</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M18" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022/11/24</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1449,49 +1449,49 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>221021032</v>
+        <v>221021073</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>A115051108003</t>
+          <t>A125441108001</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15PC23BWH0-0201</t>
+          <t>25GC23BTH0-0001</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>11/29 BETA</t>
+          <t>11/28 庫存</t>
         </is>
       </c>
       <c r="J19" s="2" t="n">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>中4-11-10-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>600</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1504,29 +1504,29 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>221021068</v>
+        <v>221021030</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>A117251104004</t>
+          <t>A125441108001</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>17PC11BTH0-00010002</t>
+          <t>25GC23BTH0-0001</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 TME</t>
         </is>
       </c>
       <c r="J20" s="2" t="n">
@@ -1534,19 +1534,19 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>中1-12-8-1</t>
+          <t>大15-23-21-1</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1559,11 +1559,11 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221014029</v>
+        <v>221021083</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>A117251104004</t>
+          <t>A116071108012</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1573,15 +1573,15 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>17PC11BTH0-00010002</t>
+          <t>16FC23BWHJ1-0201</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/28 恒青</t>
         </is>
       </c>
       <c r="J21" s="2" t="n">
@@ -1589,19 +1589,19 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>中1-12-8-1</t>
+          <t>大24-19-17-1</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>200</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1614,11 +1614,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>221014058</v>
+        <v>221021011</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>A108010108007</t>
+          <t>A106030108002</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>80A23BTH0-00010002</t>
+          <t>60D23BWH0-00010002</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>72</v>
+        <v>240</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1644,19 +1644,19 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>小13-0-0-1</t>
+          <t>小18-48-6-1</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="M22" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1665,15 +1665,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>221021051</v>
+        <v>221021067</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>A116071108022</t>
+          <t>A109213108004</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1683,107 +1683,107 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16FC23BTHD-000161</t>
+          <t>92AM23BWHF-00010002</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>11/30 WH量試電器盒</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J23" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>大1-19-17-1</t>
+          <t>小5-5-3-1</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>221021050</v>
+        <v>221021007</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>A115051104048</t>
+          <t>A108020108001</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>*軸流扇</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15PC11BTH0-006461</t>
+          <t>80B23BTH0-0001</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 庫存</t>
         </is>
       </c>
       <c r="J24" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>中3-11-10-1</t>
+          <t>小7-4-2-1</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>220909012</v>
+        <v>221014058</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>A12544E108003</t>
+          <t>A108010108007</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1793,52 +1793,52 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>25GCB23BWH0-02010001</t>
+          <t>80A23BTH0-00010002</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12/1 MT 2248</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J25" s="2" t="n">
-        <v>44896</v>
+        <v>44893</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>大28-23-23-1</t>
+          <t>小13-0-0-1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2022/11/28</t>
+          <t>2022/11/25</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>221021049</v>
+        <v>221021044</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>A115050108033</t>
+          <t>A108010104016</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1848,90 +1848,90 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15P23BTL0-006461</t>
+          <t>80A11BTH0-00010002</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/28 FD 2248</t>
         </is>
       </c>
       <c r="J26" s="2" t="n">
-        <v>44895</v>
+        <v>44893</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>小13-0-0-1</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="M26" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>2022/11/25</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>2022/11/28</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2022/11/28</t>
-        </is>
-      </c>
       <c r="D27" t="n">
-        <v>221021021</v>
+        <v>221007006</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>A115061108004</t>
+          <t>A112010104022</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15KC23BTH0-0001</t>
+          <t>12A11BTM0-00010009</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J27" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>中13-11-13-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>20</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1944,49 +1944,49 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>221021030</v>
+        <v>221007004</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>A125441108001</t>
+          <t>A112010108040</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>*軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>25GC23BTH0-0001</t>
+          <t>12A23BTH0-00010009</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>30</v>
+        <v>2500</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>11/28 TME</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J28" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>大15-23-21-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M28" t="n">
-        <v>10</v>
+        <v>358</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1999,21 +1999,21 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>221021052</v>
+        <v>221007007</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>A115050108031</t>
+          <t>A112010108048</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15P23BTH0-006461</t>
+          <t>12A23BTM0-00010009</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -2021,27 +2021,27 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>11/30 WH</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J29" s="2" t="n">
-        <v>44895</v>
+        <v>44894</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>中1-11-8-1</t>
+          <t>小1-1-1-1</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>400</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2054,29 +2054,29 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>221007006</v>
+        <v>221007012</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>A112010104022</t>
+          <t>A115051104018</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>軸流扇00</t>
+          <t>軸流扇03</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>12A11BTM0-00010009</t>
+          <t>15PC11BTH0-00010009</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>2000</v>
+        <v>700</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>11/29 ORION 2248</t>
+          <t>11/29 ORION 2248(彩)</t>
         </is>
       </c>
       <c r="J30" s="2" t="n">
@@ -2084,19 +2084,19 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>小1-1-1-1</t>
+          <t>中3-11-10-1</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M30" t="n">
-        <v>286</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2105,103 +2105,543 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2022/11/30</t>
+          <t>2022/11/29</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>221014028</v>
+        <v>221014009</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>A115011108013</t>
+          <t>AC15001808003</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>軸流扇</t>
+          <t>軸流扇(T)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>15AC23BTH0-00010002</t>
+          <t>T15PBPB23M1D4AN-09300</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11/28 FD 2248</t>
+          <t>11/29 ORION 2248</t>
         </is>
       </c>
       <c r="J31" s="2" t="n">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>中7-11-11-1</t>
+          <t>中0-11-8-1</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>2022/11/29</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>2022/11/30</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="n">
+        <v>221014004</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A115061108009</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>軸流扇00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>15KC23BTHF-00010009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>600</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>11/29 ORION 2248</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>中13-11-13-1</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>2022/11/30</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>221028015</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>A12544E104002</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>221007010</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A115011108040</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>軸流扇03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>15AC23BTH0-00010009</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>500</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>11/29 ORION(彩) 2248</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>中7-11-11-1</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>221021009</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>A112020204010</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
         <is>
           <t>軸流扇</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>25GCB11BTH0-00010001</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>200</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>12/1 MT 2249</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>大18-23-23-1</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>2</v>
-      </c>
-      <c r="M32" t="n">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>12B11STH0-0014</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>600</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>11/29 鈞楷</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>小10-1-2-1</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M34" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>221007013</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A109220108033</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>軸流扇03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>92B23BTL0-00013509</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>384</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>11/29 ORION 2248(彩)</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>小7-5-2-1</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>221021033</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>A115051108001</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>*軸流扇</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>15PC23BTH0-0001</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
         <v>100</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>11/29 BETA</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>中3-11-10-1</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2022/11/30</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>221021052</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A115050108031</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>15P23BTH0-006461</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>中1-11-8-1</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>221014060</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A415011104001</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>風扇組</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>15AC11BWH0-57010009</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>180</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>11/29 ORION 2248</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>中8-11-11-1</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M38" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>221021080</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A1205A1104006</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>20TC11BWH0-02637037</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>60</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>11/29 台積電</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>大13-21-20-1</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>3</v>
+      </c>
+      <c r="M39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2022/12/01</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2022/12/02</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>221021048</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A109220108039</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>軸流扇</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>92B23BTH0-0064</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1500</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>11/30 WH</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>小7-5-2-1</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M40" t="n">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
